--- a/Assets/OriginalDatas/IAP.xlsx
+++ b/Assets/OriginalDatas/IAP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -71,11 +71,11 @@
     <t>IAP13</t>
   </si>
   <si>
-    <t>解锁病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁病毒</t>
+    <t>Unlock G-Virus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock T-Virus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -119,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,134 +412,135 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
     </row>
